--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -441,13 +441,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.2623891</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.0148103</v>
       </c>
       <c r="D2" t="str">
@@ -457,14 +457,11 @@
         <v>高松市川部町930-1</v>
       </c>
       <c r="F2" t="str">
-        <v>087-885-2727</v>
+        <v>087-885-2728</v>
       </c>
       <c r="G2" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/seibu_clean.html</v>
       </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
       <c r="I2" t="str">
         <v>月火水木金土</v>
       </c>
@@ -479,13 +476,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>34.19943</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>134.03223</v>
       </c>
       <c r="D3" t="str">
@@ -500,9 +497,6 @@
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/nanbu_clean.html</v>
       </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
@@ -517,13 +511,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.35143</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.07846</v>
       </c>
       <c r="D4" t="str">
@@ -538,9 +532,6 @@
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/eisei.html</v>
       </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
       <c r="I4" t="str">
         <v>月火水木金</v>
       </c>
@@ -555,13 +546,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.33889</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.07206</v>
       </c>
       <c r="D5" t="str">
@@ -575,9 +566,6 @@
       </c>
       <c r="G5" t="str">
         <v>（環境業務課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyogyomu.html（環境指導課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyoshido.html（適正処理対策室）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/tekiseisyoritaisaku.html（環境保全推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyohozen.html</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
       </c>
       <c r="I5" t="str">
         <v>月火水木金</v>

--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -454,7 +454,7 @@
         <v>高松市西部クリーンセンター</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市川部町930-1</v>
+        <v>高松市川部町930－1</v>
       </c>
       <c r="F2" t="str">
         <v>087-885-2727</v>

--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -571,10 +571,10 @@
         <v>高松市木太町2282-1</v>
       </c>
       <c r="F5" t="str">
-        <v>（環境業務課）087-834-0389、087-861-4524（環境指導課）087-839-2380（適正処理対策室）087-839-2370（環境保全推進課）087-839-2393</v>
+        <v>（環境業務課）087-834-0389、087-861-4524（環境指導課）087-839-2380（適正処理対策室）087-839-2370</v>
       </c>
       <c r="G5" t="str">
-        <v>（環境業務課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyogyomu.html（環境指導課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyoshido.html（適正処理対策室）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/tekiseisyoritaisaku.html（環境保全推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyohozen.html</v>
+        <v>（環境業務課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyogyomu.html（環境指導課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyoshido.html（適正処理対策室）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/tekiseisyoritaisaku.html</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -586,10 +586,10 @@
         <v>08:00</v>
       </c>
       <c r="K5" t="str">
-        <v>17:15</v>
+        <v>16:45</v>
       </c>
       <c r="L5" t="str">
-        <v>※環境業務課・適正処理対策室の利用可能時間は8：00～16：45、環境指導課・環境保全推進課の利用可能時間は8：30～17：15</v>
+        <v>利用可能曜日は祝祭日及び年末年始を除く。</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -533,7 +533,7 @@
         <v>高松市朝日町五丁目5-56</v>
       </c>
       <c r="F4" t="str">
-        <v>087-821-0428</v>
+        <v>087-839-3990</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/eisei.html</v>
